--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna2-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna2-Epha5.xlsx
@@ -534,22 +534,22 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.186026</v>
+        <v>1.573649333333333</v>
       </c>
       <c r="H2">
-        <v>3.558078</v>
+        <v>4.720948</v>
       </c>
       <c r="I2">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="J2">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.617649</v>
+        <v>0.0237255</v>
       </c>
       <c r="N2">
-        <v>1.235298</v>
+        <v>0.047451</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.732547772874</v>
+        <v>0.037335617258</v>
       </c>
       <c r="R2">
-        <v>4.395286637244</v>
+        <v>0.224013703548</v>
       </c>
       <c r="S2">
-        <v>0.1428187553521992</v>
+        <v>0.162950296453897</v>
       </c>
       <c r="T2">
-        <v>0.1524379446999992</v>
+        <v>0.1728167686459121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>13.179146</v>
       </c>
       <c r="I3">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="J3">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,10 +620,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.617649</v>
+        <v>0.0237255</v>
       </c>
       <c r="N3">
-        <v>1.235298</v>
+        <v>0.047451</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>2.713362115918</v>
+        <v>0.104227276141</v>
       </c>
       <c r="R3">
-        <v>16.280172695508</v>
+        <v>0.625363656846</v>
       </c>
       <c r="S3">
-        <v>0.5290016768392695</v>
+        <v>0.4548971409363525</v>
       </c>
       <c r="T3">
-        <v>0.5646312220084034</v>
+        <v>0.4824406931050072</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.785643</v>
+        <v>1.149467</v>
       </c>
       <c r="H4">
-        <v>2.356929</v>
+        <v>3.448401</v>
       </c>
       <c r="I4">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="J4">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,10 +682,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.617649</v>
+        <v>0.0237255</v>
       </c>
       <c r="N4">
-        <v>1.235298</v>
+        <v>0.047451</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.485251613307</v>
+        <v>0.0272716793085</v>
       </c>
       <c r="R4">
-        <v>2.911509679842</v>
+        <v>0.163630075851</v>
       </c>
       <c r="S4">
-        <v>0.09460547695511548</v>
+        <v>0.11902651019285</v>
       </c>
       <c r="T4">
-        <v>0.1009773851399054</v>
+        <v>0.1262334424813261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.5720835</v>
+        <v>1.6540555</v>
       </c>
       <c r="H5">
-        <v>3.144167</v>
+        <v>3.308111</v>
       </c>
       <c r="I5">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="J5">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,10 +744,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.617649</v>
+        <v>0.0237255</v>
       </c>
       <c r="N5">
-        <v>1.235298</v>
+        <v>0.047451</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.9709958016915001</v>
+        <v>0.03924329376525</v>
       </c>
       <c r="R5">
-        <v>3.883983206766001</v>
+        <v>0.156973175061</v>
       </c>
       <c r="S5">
-        <v>0.1893069871821773</v>
+        <v>0.1712762992154535</v>
       </c>
       <c r="T5">
-        <v>0.1347048477502636</v>
+        <v>0.1210979348516435</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3676123333333334</v>
+        <v>0.8870146666666666</v>
       </c>
       <c r="H6">
-        <v>1.102837</v>
+        <v>2.661044</v>
       </c>
       <c r="I6">
-        <v>0.04426710367123859</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="J6">
-        <v>0.04724860040142825</v>
+        <v>0.097411160916111</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.617649</v>
+        <v>0.0237255</v>
       </c>
       <c r="N6">
-        <v>1.235298</v>
+        <v>0.047451</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.227055390071</v>
+        <v>0.021044866474</v>
       </c>
       <c r="R6">
-        <v>1.362332340426</v>
+        <v>0.126269198844</v>
       </c>
       <c r="S6">
-        <v>0.04426710367123859</v>
+        <v>0.09184975320144682</v>
       </c>
       <c r="T6">
-        <v>0.04724860040142825</v>
+        <v>0.097411160916111</v>
       </c>
     </row>
   </sheetData>
